--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_10_30_replicas.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_10_30_replicas.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kisshin\Desktop\Mestrado Ricardo\Thesis\Msc_thesis\Data\Modeling Stage\Results\IMS\Non temporal models\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71606B-6682-4276-9898-7CDA0FCBE1C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exam_fail" sheetId="1" r:id="rId1"/>
     <sheet name="exam_gifted" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="305">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -119,9 +137,6 @@
     <t>0.959+/-0.009</t>
   </si>
   <si>
-    <t>0.788+/-0.0</t>
-  </si>
-  <si>
     <t>0.793</t>
   </si>
   <si>
@@ -155,9 +170,6 @@
     <t>0.003+/-0.001</t>
   </si>
   <si>
-    <t>0.798+/-0.0</t>
-  </si>
-  <si>
     <t>0.463+/-0.085</t>
   </si>
   <si>
@@ -188,9 +200,6 @@
     <t>0.602+/-0.066</t>
   </si>
   <si>
-    <t>0.599+/-0.0</t>
-  </si>
-  <si>
     <t>0.419</t>
   </si>
   <si>
@@ -227,9 +236,6 @@
     <t>0.692+/-0.016</t>
   </si>
   <si>
-    <t>0.69+/-0.0</t>
-  </si>
-  <si>
     <t>0.684</t>
   </si>
   <si>
@@ -266,9 +272,6 @@
     <t>0.826+/-0.007</t>
   </si>
   <si>
-    <t>0.778+/-0.0</t>
-  </si>
-  <si>
     <t>0.784</t>
   </si>
   <si>
@@ -305,9 +308,6 @@
     <t>0.839+/-0.003</t>
   </si>
   <si>
-    <t>0.78+/-0.0</t>
-  </si>
-  <si>
     <t>0.785</t>
   </si>
   <si>
@@ -341,9 +341,6 @@
     <t>0.829+/-0.004</t>
   </si>
   <si>
-    <t>0.785+/-0.0</t>
-  </si>
-  <si>
     <t>0.855+/-0.05</t>
   </si>
   <si>
@@ -437,9 +434,6 @@
     <t>0.801+/-0.001</t>
   </si>
   <si>
-    <t>0.796+/-0.0</t>
-  </si>
-  <si>
     <t>0.616+/-0.052</t>
   </si>
   <si>
@@ -539,9 +533,6 @@
     <t>0.976+/-0.005</t>
   </si>
   <si>
-    <t>0.702+/-0.0</t>
-  </si>
-  <si>
     <t>0.702</t>
   </si>
   <si>
@@ -578,9 +569,6 @@
     <t>0.725+/-0.001</t>
   </si>
   <si>
-    <t>0.724+/-0.0</t>
-  </si>
-  <si>
     <t>0.568+/-0.028</t>
   </si>
   <si>
@@ -614,9 +602,6 @@
     <t>0.666+/-0.006</t>
   </si>
   <si>
-    <t>0.664+/-0.0</t>
-  </si>
-  <si>
     <t>0.676</t>
   </si>
   <si>
@@ -653,9 +638,6 @@
     <t>0.627+/-0.004</t>
   </si>
   <si>
-    <t>0.625+/-0.0</t>
-  </si>
-  <si>
     <t>0.596</t>
   </si>
   <si>
@@ -692,9 +674,6 @@
     <t>0.772+/-0.009</t>
   </si>
   <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
     <t>0.713</t>
   </si>
   <si>
@@ -767,9 +746,6 @@
     <t>0.779+/-0.006</t>
   </si>
   <si>
-    <t>0.699+/-0.0</t>
-  </si>
-  <si>
     <t>0.716</t>
   </si>
   <si>
@@ -806,9 +782,6 @@
     <t>0.735+/-0.002</t>
   </si>
   <si>
-    <t>0.725+/-0.0</t>
-  </si>
-  <si>
     <t>0.727</t>
   </si>
   <si>
@@ -878,9 +851,6 @@
     <t>0.732+/-0.001</t>
   </si>
   <si>
-    <t>0.721+/-0.0</t>
-  </si>
-  <si>
     <t>0.722+/-0.042</t>
   </si>
   <si>
@@ -912,9 +882,6 @@
   </si>
   <si>
     <t>0.762+/-0.004</t>
-  </si>
-  <si>
-    <t>0.72+/-0.0</t>
   </si>
   <si>
     <t>0.722</t>
@@ -986,8 +953,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1017,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1096,7 +1071,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1128,9 +1103,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1162,6 +1155,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1337,14 +1348,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1399,81 +1412,81 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="L2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="M2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" t="s">
-        <v>119</v>
-      </c>
-      <c r="L3" t="s">
-        <v>140</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="B3">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="C3">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.69</v>
+      </c>
+      <c r="G3">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.78</v>
+      </c>
+      <c r="I3">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="J3">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="M3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="N3">
+        <v>0.79900000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1481,43 +1494,43 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="J4" t="s">
         <v>27</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="L4" t="s">
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="N4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,43 +1538,43 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="N5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1569,43 +1582,43 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L6" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="N6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1613,43 +1626,43 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="J7" t="s">
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s">
         <v>31</v>
       </c>
       <c r="M7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1657,43 +1670,43 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,43 +1714,43 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -1745,43 +1758,43 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -1789,43 +1802,43 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="M11" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -1833,43 +1846,43 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="N12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1877,43 +1890,43 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="N13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -1921,40 +1934,40 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="N14" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1963,14 +1976,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2011,139 +2026,139 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="G2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H2" t="s">
         <v>224</v>
       </c>
-      <c r="H2" t="s">
-        <v>237</v>
-      </c>
       <c r="I2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="K2" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="L2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="M2" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="N2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s">
-        <v>250</v>
-      </c>
-      <c r="J3" t="s">
-        <v>263</v>
-      </c>
-      <c r="K3" t="s">
-        <v>263</v>
-      </c>
-      <c r="L3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M3" t="s">
-        <v>299</v>
-      </c>
-      <c r="N3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="B3">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="C3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D3">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="E3">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.625</v>
+      </c>
+      <c r="G3">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.69</v>
+      </c>
+      <c r="I3">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="J3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="K3">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="M3">
+        <v>0.72</v>
+      </c>
+      <c r="N3">
+        <v>0.72399999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" t="s">
         <v>213</v>
       </c>
-      <c r="G4" t="s">
-        <v>226</v>
-      </c>
       <c r="H4" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="I4" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J4" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="K4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="L4" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="N4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2151,43 +2166,43 @@
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="F5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" t="s">
         <v>214</v>
       </c>
-      <c r="G5" t="s">
-        <v>227</v>
-      </c>
       <c r="H5" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="I5" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="J5" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="K5" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="L5" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="M5" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="N5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2195,43 +2210,43 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" t="s">
         <v>215</v>
       </c>
-      <c r="G6" t="s">
-        <v>228</v>
-      </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="I6" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J6" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="K6" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="L6" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="M6" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="N6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2239,43 +2254,43 @@
         <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" t="s">
         <v>216</v>
       </c>
-      <c r="G7" t="s">
-        <v>229</v>
-      </c>
       <c r="H7" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="I7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="J7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="K7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="L7" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="M7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="N7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -2283,43 +2298,43 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" t="s">
         <v>217</v>
       </c>
-      <c r="G8" t="s">
-        <v>230</v>
-      </c>
       <c r="H8" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="K8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="L8" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="M8" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="N8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2327,43 +2342,43 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9" t="s">
         <v>218</v>
       </c>
-      <c r="G9" t="s">
-        <v>231</v>
-      </c>
       <c r="H9" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I9" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="J9" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="K9" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="L9" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="M9" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="N9" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -2371,43 +2386,43 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F10" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" t="s">
         <v>219</v>
       </c>
-      <c r="G10" t="s">
-        <v>232</v>
-      </c>
       <c r="H10" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I10" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="J10" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="K10" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="L10" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="M10" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="N10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -2415,43 +2430,43 @@
         <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" t="s">
         <v>220</v>
       </c>
-      <c r="G11" t="s">
-        <v>233</v>
-      </c>
       <c r="H11" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="J11" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="K11" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="L11" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="M11" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="N11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2459,43 +2474,43 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E12" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="F12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G12" t="s">
         <v>221</v>
       </c>
-      <c r="G12" t="s">
-        <v>234</v>
-      </c>
       <c r="H12" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="J12" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="K12" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L12" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="M12" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="N12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2503,84 +2518,84 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="F13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" t="s">
         <v>222</v>
       </c>
-      <c r="G13" t="s">
-        <v>235</v>
-      </c>
       <c r="H13" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I13" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="J13" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="K13" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="L13" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="M13" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="N13" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E14" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G14" t="s">
         <v>223</v>
       </c>
-      <c r="G14" t="s">
-        <v>236</v>
-      </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="I14" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="J14" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="K14" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="L14" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="M14" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="N14" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
